--- a/Employee_Reports21/Sivagaran Ramanathan Q0128.xlsx
+++ b/Employee_Reports21/Sivagaran Ramanathan Q0128.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1220,11 +1220,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>-82</v>
+        <v>-83</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-159</v>
+        <v>-160</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1359,11 +1359,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1395,11 +1395,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1533,11 +1533,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1579,11 +1579,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1615,11 +1615,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
